--- a/文件审核登记表.xlsx
+++ b/文件审核登记表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF93E51-4C1E-4A0A-A49E-D238238F1B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C36327-34CA-4E89-8955-882C61FEBF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>申请项目</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -670,6 +670,10 @@
       </rPr>
       <t>：00-12：00</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00-21:30</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -968,11 +972,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1583,7 +1587,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1784,16 +1788,16 @@
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1975,7 +1979,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2037,7 +2041,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2052,18 +2056,30 @@
       <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>13</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
